--- a/01_Input/Local_Counts/005_Merged.xlsx
+++ b/01_Input/Local_Counts/005_Merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Local_Counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490226FD-1C44-4563-9CF7-658A050910A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833098BC-390F-451A-86D3-EE244367ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -59,21 +59,25 @@
   <si>
     <t>RC5</t>
   </si>
-  <si>
-    <t>RC6</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -153,6 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,470 +449,668 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45393.333333333336</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>105</v>
+      </c>
+      <c r="I2" s="10">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45393.340277777781</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>100</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>32</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45393.347222222219</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>92</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10">
+        <v>31</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45393.354166666664</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>116</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>29</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45393.361111111109</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>114</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>25</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45393.368055555555</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>92</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>26</v>
+      </c>
+      <c r="K7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45393.666666666664</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <v>22</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>17</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>45393.673611111109</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
         <v>21</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>63</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>13</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K9" s="6">
         <v>3</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>45393.680555497682</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>27</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H10" s="5">
         <v>71</v>
       </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>9</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K10" s="5">
         <v>3</v>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>45393.687499942127</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
         <v>39</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
         <v>75</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>11</v>
       </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>45393.694444386572</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
         <v>58</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>16</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>45393.701388831018</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
         <v>35</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
         <v>75</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>17</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K13" s="6">
         <v>5</v>
       </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>45393.833333333336</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>43</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>45393.840277777781</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>49</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>13</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>45393.847222222219</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>13</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>60</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>12</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K16" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>45393.854166666664</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>58</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>10</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>45393.861111111109</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>50</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>45393.868055555555</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>52</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>9</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K19" s="1">
         <v>0</v>
       </c>
     </row>

--- a/01_Input/Local_Counts/005_Merged.xlsx
+++ b/01_Input/Local_Counts/005_Merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Local_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Local_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833098BC-390F-451A-86D3-EE244367ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{833098BC-390F-451A-86D3-EE244367ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0445F6F4-8C34-4E61-857B-F6E28DB33C79}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,6 +142,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -150,7 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -158,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +450,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection sqref="A1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,463 +459,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45393.333333333336</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="3">
+        <v>45393.340277777781</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
         <v>27</v>
       </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
         <v>6</v>
       </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
         <v>105</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>9</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>31</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45393.340277777781</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="3">
+        <v>45393.347222222219</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>32</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>100</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>5</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>32</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45393.347222222219</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="3">
+        <v>45393.354166666664</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>32</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>11</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
         <v>92</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>6</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>31</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45393.354166666664</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="3">
+        <v>45393.361111111109</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>15</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>11</v>
       </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
         <v>116</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>4</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>29</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45393.361111111109</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="A6" s="3">
+        <v>45393.368055555555</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
         <v>19</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>5</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
         <v>114</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>25</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45393.368055555555</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="10">
+        <v>45393.37499971065</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
         <v>27</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>10</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>92</v>
       </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
         <v>26</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45393.666666666664</v>
+        <v>45393.673611111109</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>22</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>105</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>17</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45393.673611111109</v>
+      <c r="A9" s="3">
+        <v>45393.680555497682</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>21</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>63</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>13</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45393.680555497682</v>
+      <c r="A10" s="3">
+        <v>45393.687499942127</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>71</v>
       </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>9</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45393.687499942127</v>
+      <c r="A11" s="3">
+        <v>45393.694444386572</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>39</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
         <v>75</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>11</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45393.694444386572</v>
+      <c r="A12" s="3">
+        <v>45393.701388831018</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
         <v>58</v>
       </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>16</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45393.701388831018</v>
+      <c r="A13" s="10">
+        <v>45393.708332986113</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>35</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
         <v>5</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
         <v>75</v>
       </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>17</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45393.833333333336</v>
+        <v>45393.840277777781</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -940,8 +949,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45393.840277777781</v>
+      <c r="A15" s="3">
+        <v>45393.847222222219</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -975,8 +984,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45393.847222222219</v>
+      <c r="A16" s="3">
+        <v>45393.854166666664</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1010,8 +1019,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45393.854166666664</v>
+      <c r="A17" s="3">
+        <v>45393.861111111109</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1045,8 +1054,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45393.861111111109</v>
+      <c r="A18" s="3">
+        <v>45393.868055555555</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1080,8 +1089,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45393.868055555555</v>
+      <c r="A19" s="3">
+        <v>45393.87499971065</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
